--- a/uploads/lecturer_data.xlsx
+++ b/uploads/lecturer_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t xml:space="preserve">MaGv</t>
   </si>
@@ -47,6 +47,42 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyen Thi Nhat Thanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bui Ngoc Hung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pham Hai Dang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vu Ba Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vo Dinh Hieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dang Cong Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dang Minh Dung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tran Thi Minh Chau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doan Minh Phuong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Hong Hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Dinh Hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma Vu Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen Minh duc</t>
   </si>
 </sst>
 </file>
@@ -220,18 +256,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.8744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,7 +281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>11020001</v>
       </c>
@@ -256,7 +292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>11020002</v>
       </c>
@@ -267,7 +303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>11020003</v>
       </c>
@@ -278,7 +314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>11020004</v>
       </c>
@@ -289,7 +325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>11020005</v>
       </c>
@@ -300,18 +336,138 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>11020006</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>11020007</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>11020008</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>11020009</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11020010</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11020011</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11020012</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>11020013</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>11020014</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>11020015</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>11020016</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>11020017</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="nguyenthilanuet96@gmail.com"/>
@@ -319,6 +475,18 @@
     <hyperlink ref="C4" r:id="rId3" display="nguyenthilanuet96@gmail.com"/>
     <hyperlink ref="C5" r:id="rId4" display="nguyenthilanuet96@gmail.com"/>
     <hyperlink ref="C6" r:id="rId5" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId7" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId8" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C10" r:id="rId9" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C11" r:id="rId10" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C12" r:id="rId11" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C13" r:id="rId12" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C14" r:id="rId13" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId14" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C16" r:id="rId15" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C17" r:id="rId16" display="nguyenthilanuet96@gmail.com"/>
+    <hyperlink ref="C18" r:id="rId17" display="nguyenthilanuet96@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
